--- a/Project_Overview/Task Mangement System.xlsx
+++ b/Project_Overview/Task Mangement System.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e6d409674a442f4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\All Language\Angular Js\Project\App\Project_Overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E629E780-FB03-414B-8A7B-4A17A94E7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4A33FF-CEBF-447E-A1D9-A1AFC9FF2152}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459643D0-8C73-48C1-ABE9-6F23DDD94C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{97CEBCEE-F583-4889-ABC9-90ECA4041057}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Task Management System</t>
   </si>
@@ -69,14 +69,20 @@
     <t>Needs to repair the database so: Click on ==&gt;My sql section from theside bar ==&gt; Scroll Down ==&gt; Tick on check all ==&gt; Click right side drop down ==&gt; Go to table minteinance section ==&gt; Then choose the option of repair table.</t>
   </si>
   <si>
-    <t>#1030 Incorrect table definition; there can be only one auto column and it must be defined as a key</t>
+    <t>#1070 Incorrect table definition; there can be only one auto column and it must be defined as a key</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UsoLM4QGtMk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +162,20 @@
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,11 +235,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -227,20 +247,17 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -280,17 +297,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,7 +638,8 @@
     <col min="3" max="3" width="64.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="89.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="53.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -630,7 +649,8 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -648,6 +668,9 @@
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -665,8 +688,11 @@
       <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -676,8 +702,11 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
@@ -687,6 +716,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
@@ -696,6 +726,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -705,6 +736,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
@@ -714,6 +746,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
@@ -723,6 +756,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
@@ -732,6 +766,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -742,6 +777,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -751,6 +787,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
@@ -760,6 +797,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -769,6 +807,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -778,6 +817,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -787,8 +827,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -796,8 +837,9 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -805,8 +847,9 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -814,17 +857,22 @@
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{AF7DA2D1-057D-4656-A069-95E6DD159D64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>